--- a/xlsx_output/cvmarket_category.xlsx
+++ b/xlsx_output/cvmarket_category.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Darbo_Rinkos_analiz-_-PBI\xlsx_output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4FE3D-471E-4F8F-85A4-87FD8758BFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -284,13 +290,43 @@
   </si>
   <si>
     <t>101</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>Paslaugos / Klientų aptarnavimas</t>
+  </si>
+  <si>
+    <t>Dizainas / Kultūra / Pramogos / Sportas</t>
+  </si>
+  <si>
+    <t>Turizmas / viešbučiai / maitinimas</t>
+  </si>
+  <si>
+    <t>Marketingas</t>
+  </si>
+  <si>
+    <t>Pardavimai</t>
+  </si>
+  <si>
+    <t>Inžinerija</t>
+  </si>
+  <si>
+    <t>Personalo valdymas / Žmogiškieji ištekliai</t>
+  </si>
+  <si>
+    <t>Statyba / Nekilnojamas turtas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,15 +343,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -338,28 +386,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +474,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -431,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -465,9 +543,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,319 +719,460 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="E1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F12" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="E15" s="3">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="E18" s="3">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="E19" s="3">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="E20" s="3">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="E21" s="3">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -965,22 +1185,31 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="E23" s="3">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="3">
+        <v>23</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -993,8 +1222,11 @@
       <c r="D25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1007,8 +1239,11 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1021,8 +1256,11 @@
       <c r="D27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1035,8 +1273,11 @@
       <c r="D28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1049,8 +1290,11 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1062,6 +1306,9 @@
       </c>
       <c r="D30" t="s">
         <v>89</v>
+      </c>
+      <c r="E30" s="3">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx_output/cvmarket_category.xlsx
+++ b/xlsx_output/cvmarket_category.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Darbo_Rinkos_analiz-_-PBI\xlsx_output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4FE3D-471E-4F8F-85A4-87FD8758BFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -290,43 +284,13 @@
   </si>
   <si>
     <t>101</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>new_name</t>
-  </si>
-  <si>
-    <t>Paslaugos / Klientų aptarnavimas</t>
-  </si>
-  <si>
-    <t>Dizainas / Kultūra / Pramogos / Sportas</t>
-  </si>
-  <si>
-    <t>Turizmas / viešbučiai / maitinimas</t>
-  </si>
-  <si>
-    <t>Marketingas</t>
-  </si>
-  <si>
-    <t>Pardavimai</t>
-  </si>
-  <si>
-    <t>Inžinerija</t>
-  </si>
-  <si>
-    <t>Personalo valdymas / Žmogiškieji ištekliai</t>
-  </si>
-  <si>
-    <t>Statyba / Nekilnojamas turtas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,27 +307,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -386,57 +338,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -474,7 +397,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -508,7 +431,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -543,10 +465,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,460 +640,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="3">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="3">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="3">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="3">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="3">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="3">
-        <v>19</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="3">
-        <v>20</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="3">
-        <v>21</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1185,31 +965,22 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="3">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="3">
-        <v>23</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1222,11 +993,8 @@
       <c r="D25" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1239,11 +1007,8 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1256,11 +1021,8 @@
       <c r="D27" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1273,11 +1035,8 @@
       <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1290,11 +1049,8 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1306,9 +1062,6 @@
       </c>
       <c r="D30" t="s">
         <v>89</v>
-      </c>
-      <c r="E30" s="3">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
